--- a/data/SP500Data/BF.B.xlsx
+++ b/data/SP500Data/BF.B.xlsx
@@ -1,69 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Close</t>
-  </si>
-  <si>
-    <t>Adj Close</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -78,38 +49,96 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -397,677 +426,1443 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G129"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2">
-        <v>44055</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2">
-        <v>44056</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2">
-        <v>44057</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2">
-        <v>44060</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2">
-        <v>44061</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2">
-        <v>44062</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2">
-        <v>44063</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2">
-        <v>44064</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Adj Close</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>44067</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="2">
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>44068</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="2">
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>44069</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="2">
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>44070</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="2">
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>44071</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="2">
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>44074</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="2">
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>44075</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="2">
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>44076</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="2">
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>44077</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="2">
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>44078</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="2">
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>44082</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="2">
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>44083</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="2">
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
         <v>44084</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="2">
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
         <v>44085</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="2">
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
         <v>44088</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="2">
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
         <v>44089</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="2">
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
         <v>44090</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="2">
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
         <v>44091</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="2">
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
         <v>44092</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="2">
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
         <v>44095</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="2">
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
         <v>44096</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="2">
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
         <v>44097</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="2">
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
         <v>44098</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="2">
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
         <v>44099</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="2">
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>44102</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="2">
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
         <v>44103</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="2">
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>44104</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="2">
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
         <v>44105</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="2">
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
         <v>44106</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="2">
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
         <v>44109</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="2">
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
         <v>44110</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="2">
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
         <v>44111</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="2">
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
         <v>44112</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="2">
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
         <v>44113</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="2">
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
         <v>44116</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="2">
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
         <v>44117</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="2">
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
         <v>44118</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="2">
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
         <v>44119</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="2">
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
         <v>44120</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="2">
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
         <v>44123</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="2">
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
         <v>44124</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="2">
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
         <v>44125</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="2">
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
         <v>44126</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="2">
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
         <v>44127</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="2">
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
         <v>44130</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="2">
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
         <v>44131</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="2">
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
         <v>44132</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="2">
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
         <v>44133</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="2">
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
         <v>44134</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="2">
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
         <v>44137</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="2">
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
         <v>44138</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="2">
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
         <v>44139</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="2">
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
         <v>44140</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="2">
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
         <v>44141</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="2">
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
         <v>44144</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="2">
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
         <v>44145</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="2">
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
         <v>44146</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="2">
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
         <v>44147</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="2">
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
         <v>44148</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="2">
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
         <v>44151</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="2">
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
         <v>44152</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="2">
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
         <v>44153</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="2">
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
         <v>44154</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="2">
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
         <v>44155</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="2">
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
         <v>44158</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="2">
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
         <v>44159</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="2">
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
         <v>44160</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="2">
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
         <v>44162</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="2">
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
         <v>44165</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="2">
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
         <v>44166</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="2">
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
         <v>44167</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="2">
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
         <v>44168</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="2">
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
         <v>44169</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="2">
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
         <v>44172</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="2">
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
         <v>44173</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="2">
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
         <v>44174</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="2">
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
         <v>44175</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="2">
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
         <v>44176</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="2">
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
         <v>44179</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="2">
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
         <v>44180</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="2">
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
         <v>44181</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="2">
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
         <v>44182</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="2">
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
         <v>44183</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="2">
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
         <v>44186</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="2">
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
         <v>44187</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="2">
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
         <v>44188</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="2">
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
         <v>44189</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="2">
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
         <v>44193</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="2">
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
         <v>44194</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="2">
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
         <v>44195</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="2">
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
         <v>44196</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="2">
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
         <v>44200</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="2">
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
         <v>44201</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="2">
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
         <v>44202</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="2">
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
         <v>44203</v>
       </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="2">
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
         <v>44204</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="2">
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
         <v>44207</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="2">
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
         <v>44208</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="2">
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
         <v>44209</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="2">
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
         <v>44210</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="2">
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
         <v>44211</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="2">
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
         <v>44215</v>
       </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="2">
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
         <v>44216</v>
       </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="2">
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
         <v>44217</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="2">
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
         <v>44218</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="2">
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
         <v>44221</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="2">
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
         <v>44222</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="2">
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
         <v>44223</v>
       </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="2">
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
         <v>44224</v>
       </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" s="2">
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
         <v>44225</v>
       </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" s="2">
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
         <v>44228</v>
       </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" s="2">
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
         <v>44229</v>
       </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" s="2">
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
         <v>44230</v>
       </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" s="2">
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
         <v>44231</v>
       </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" s="2">
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
         <v>44232</v>
       </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" s="2">
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
         <v>44235</v>
       </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" s="2">
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
         <v>44236</v>
       </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" s="2">
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
         <v>44237</v>
       </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" s="2">
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
         <v>44238</v>
       </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" s="2">
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
         <v>44239</v>
       </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>44243</v>
+      </c>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>44244</v>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>44245</v>
+      </c>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>44246</v>
+      </c>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>44249</v>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>44250</v>
+      </c>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>